--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2019 по 30.04.2020</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -53,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +73,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,12 +210,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +529,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D7:D16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,9 +544,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,7 +557,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -554,7 +569,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -566,7 +581,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -578,7 +593,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -590,7 +605,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43302</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -602,7 +617,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43366</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -614,7 +629,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43393</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -626,7 +641,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43407</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -638,7 +653,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43586</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -650,7 +665,7 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43644</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -662,7 +677,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>43681</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -674,7 +689,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>43745</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -686,21 +701,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>

--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,16 +49,19 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,10 +314,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,7 +348,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -522,17 +523,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -541,8 +542,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -556,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="15">
         <v>43221</v>
       </c>
@@ -568,7 +569,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" s="15">
         <v>43221</v>
       </c>
@@ -580,7 +581,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="15">
         <v>43221</v>
       </c>
@@ -592,7 +593,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="15">
         <v>43221</v>
       </c>
@@ -604,7 +605,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="15">
         <v>43302</v>
       </c>
@@ -616,7 +617,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
       <c r="A8" s="15">
         <v>43366</v>
       </c>
@@ -628,7 +629,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1">
       <c r="A9" s="15">
         <v>43393</v>
       </c>
@@ -640,7 +641,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18" customHeight="1">
       <c r="A10" s="15">
         <v>43407</v>
       </c>
@@ -652,7 +653,7 @@
         <v>1037.45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="16">
         <v>43586</v>
       </c>
@@ -664,7 +665,7 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="15">
         <v>43644</v>
       </c>
@@ -676,7 +677,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="16">
         <v>43681</v>
       </c>
@@ -688,7 +689,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="16">
         <v>43745</v>
       </c>
@@ -700,13 +701,19 @@
         <v>2387.85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11">
+        <v>11407</v>
+      </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -720,12 +727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,12 +741,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,16 +52,19 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата за пользование инфраструктурой с 01.05.2020 по 30.04.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +317,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -523,17 +528,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -542,8 +547,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -557,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>43221</v>
       </c>
@@ -569,7 +574,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>43221</v>
       </c>
@@ -581,7 +586,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>43221</v>
       </c>
@@ -593,7 +598,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>43221</v>
       </c>
@@ -605,7 +610,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43302</v>
       </c>
@@ -617,7 +622,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43366</v>
       </c>
@@ -629,7 +634,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43393</v>
       </c>
@@ -641,7 +646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43407</v>
       </c>
@@ -653,7 +658,7 @@
         <v>1037.45</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43586</v>
       </c>
@@ -665,7 +670,7 @@
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43644</v>
       </c>
@@ -677,7 +682,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43681</v>
       </c>
@@ -689,7 +694,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43745</v>
       </c>
@@ -701,7 +706,7 @@
         <v>2387.85</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43952</v>
       </c>
@@ -713,11 +718,17 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>44069</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>7300</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -727,12 +738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -741,12 +752,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -103,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,11 +176,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,6 +236,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,10 +544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,6 +740,18 @@
       <c r="C16" s="10"/>
       <c r="D16" s="11">
         <v>7300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>44106</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
+        <v>4107</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2020 по 30.04.2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -237,6 +240,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,10 +548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,6 +757,60 @@
       <c r="D17" s="18">
         <v>4107</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>12183.05</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса</t>
   </si>
 </sst>
 </file>
@@ -239,8 +242,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,7 +554,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,64 +756,70 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
         <v>4107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>44317</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <v>12183.05</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="18">
+        <v>44398</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch271.xlsx
+++ b/sputnik/personal/uch/uch271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -554,7 +554,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,10 +786,16 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="18">
+        <v>44433</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11">
+        <v>2183.0500000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
